--- a/excels/NGUOI_DUNG.xlsx
+++ b/excels/NGUOI_DUNG.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>DANH SÁCH NGƯỜI DÙNG</t>
   </si>
   <si>
-    <t>Cập nhật đến ngày: 23/09/2021 11:31:21</t>
+    <t>Cập nhật đến ngày: 18/05/2022 06:50:38</t>
   </si>
   <si>
     <t>STT</t>
@@ -39,6 +39,18 @@
   </si>
   <si>
     <t>admin@gmail.com</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>code@gmail.com</t>
+  </si>
+  <si>
+    <t>minato</t>
+  </si>
+  <si>
+    <t>thanh@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -91,10 +103,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
@@ -450,10 +459,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A5" sqref="A5:D5"/>
+      <selection activeCell="A5" sqref="A5:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -505,7 +514,35 @@
         <v>7</v>
       </c>
       <c r="D5" s="10">
-        <v>44453.0</v>
+        <v>44670.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="8">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="10">
+        <v>44670.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="8">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="10">
+        <v>44670.0</v>
       </c>
     </row>
   </sheetData>
